--- a/Result/14-09-24/NASDAQstock_14-09-24period252RS90.xlsx
+++ b/Result/14-09-24/NASDAQstock_14-09-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/14-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F1D4B-B68F-004D-87BF-EF1552122CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE1E969-7C40-054C-87DD-B75DCA4C05F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -941,6 +941,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1246,7 +1250,7 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1592,116 +1596,116 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>90.966940866056191</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2828</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>254.28</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>1.67</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>252.9960021972656</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>250.86150054931639</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>240.1832000732422</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>199.65170005798339</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>1.01</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>1.05</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
         <v>4.4444444444444438</v>
       </c>
-      <c r="S4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
+      <c r="S4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
         <v>119.46</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="5">
         <v>261.83</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="5">
         <v>12.07</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="5">
         <v>-15.03</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="5">
         <v>71.45</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="5">
         <v>3278.72</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="5">
         <v>6.15</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="5">
         <v>27.34</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>-61.6</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="5">
         <v>189.6</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="5">
         <v>7.93</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="5">
         <v>15.92</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="5">
         <v>100.76</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="5">
         <v>48.253152665157273</v>
       </c>
     </row>
